--- a/Report Creator/test_subjects/Marks Sheet Term II 2024/O level Marks Sheet Term II 2024/Marksheet O level - P.E.xlsx
+++ b/Report Creator/test_subjects/Marks Sheet Term II 2024/O level Marks Sheet Term II 2024/Marksheet O level - P.E.xlsx
@@ -10,6 +10,11 @@
   </sheets>
   <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="YOrl5ZtFUCCtQxKtR+Hf08deWWYLUj7egrTinLSzK/g="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -464,7 +469,6 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -486,12 +490,10 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -755,7 +757,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="D2" s="2"/>
       <c r="E2" s="1"/>
       <c r="G2" s="1"/>
     </row>
@@ -772,7 +774,7 @@
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="G4" s="1"/>
@@ -799,7 +801,7 @@
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="2"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="G7" s="1"/>
@@ -1020,7 +1022,7 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2436,7 +2438,7 @@
       <c r="F51" s="1"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3413,7 +3415,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -3706,7 +3708,7 @@
       <c r="F35" s="1"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4699,7 +4701,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -4896,7 +4898,7 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>37</v>
       </c>
     </row>
